--- a/Results/Final Results/Samples/900Scen/Results_Sample900_03.xlsx
+++ b/Results/Final Results/Samples/900Scen/Results_Sample900_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\900Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669A9E8A-0859-47D3-AD58-EC838A7E0BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E54E9-2166-4669-90D5-FD6D8A7B1751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +308,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +329,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -332,10 +344,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -344,8 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -706,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,6 +821,7 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H2">
@@ -850,6 +866,7 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H3">
@@ -903,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f>(TestingFile2to6!$J4-TestingFile2to6!$O4)/TestingFile2to6!$J4</f>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>2.0707386144572702E-2</v>
       </c>
       <c r="H4">
@@ -954,6 +971,7 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H5">
@@ -1004,6 +1022,7 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H6">
@@ -1054,6 +1073,7 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H7">
@@ -1107,7 +1127,8 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5.7029999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>5.3955990540402191E-2</v>
       </c>
       <c r="H8">
         <v>8.8730000000000003E-2</v>
@@ -1157,7 +1178,8 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.8289999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.6876422534401668E-2</v>
       </c>
       <c r="H9">
         <v>8.8730000000000003E-2</v>
@@ -1201,7 +1223,8 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.6140000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>5.3155497052976383E-2</v>
       </c>
       <c r="H10">
         <v>8.8730000000000003E-2</v>
@@ -1245,7 +1268,8 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.8739999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.729112038728144E-2</v>
       </c>
       <c r="H11">
         <v>8.8730000000000003E-2</v>
@@ -1298,7 +1322,8 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.7029999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>5.3955990540402191E-2</v>
       </c>
       <c r="H12">
         <v>8.8730000000000003E-2</v>
@@ -1342,7 +1367,8 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.4309999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>5.1516790900607699E-2</v>
       </c>
       <c r="H13">
         <v>8.8730000000000003E-2</v>
@@ -1398,7 +1424,8 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.8879999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7428376549700777E-2</v>
       </c>
       <c r="H14">
         <v>0.10428</v>
@@ -1448,7 +1475,8 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.1000000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.9383441965157757E-2</v>
       </c>
       <c r="H15">
         <v>0.10428</v>
@@ -1498,7 +1526,8 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.6769999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.5465714236090559E-2</v>
       </c>
       <c r="H16">
         <v>0.10428</v>
@@ -1548,7 +1577,8 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.4889999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.371478970521604E-2</v>
       </c>
       <c r="H17">
         <v>0.10428</v>
@@ -1598,7 +1628,8 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.8879999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7428376549700777E-2</v>
       </c>
       <c r="H18">
         <v>0.10428</v>
@@ -1648,7 +1679,8 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.6719999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.4637146623574112E-2</v>
       </c>
       <c r="H19">
         <v>0.10428</v>
@@ -1701,6 +1733,7 @@
         <v>1</v>
       </c>
       <c r="G20">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H20">
@@ -1751,7 +1784,8 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.7289999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.6563412182150498E-2</v>
       </c>
       <c r="H21">
         <v>0.13261000000000001</v>
@@ -1801,7 +1835,8 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.2469999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1445109375602277E-2</v>
       </c>
       <c r="H22">
         <v>0.13261000000000001</v>
@@ -1851,7 +1886,8 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.2469999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1445109375602277E-2</v>
       </c>
       <c r="H23">
         <v>0.13261000000000001</v>
@@ -1901,7 +1937,8 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.2469999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1445109375602277E-2</v>
       </c>
       <c r="H24">
         <v>0.13261000000000001</v>
@@ -1951,7 +1988,8 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.2469999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1445109375602277E-2</v>
       </c>
       <c r="H25">
         <v>0.13261000000000001</v>
@@ -2004,6 +2042,7 @@
         <v>1</v>
       </c>
       <c r="G26">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H26">
@@ -2054,7 +2093,8 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>6.9209999999999994E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.472614967907428E-2</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2104,7 +2144,8 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>4.4740000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.2825326019507538E-2</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2154,7 +2195,8 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>6.7100000000000007E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.2881572297742772E-2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2204,7 +2246,8 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>7.1650000000000005E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.6860339130545954E-2</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2254,7 +2297,8 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>7.1650000000000005E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.6860339130545954E-2</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2307,7 +2351,8 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>4.0919999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.9310101340491413E-2</v>
       </c>
       <c r="H32">
         <v>0.12798000000000001</v>
@@ -2357,7 +2402,8 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3.4810000000000001E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.3640789355296012E-2</v>
       </c>
       <c r="H33">
         <v>0.12798000000000001</v>
@@ -2407,7 +2453,8 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>4.0919999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.9310101340491413E-2</v>
       </c>
       <c r="H34">
         <v>0.12798000000000001</v>
@@ -2457,7 +2504,8 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4.0919999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.9310101340491413E-2</v>
       </c>
       <c r="H35">
         <v>0.12798000000000001</v>
@@ -2507,7 +2555,8 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>4.0919999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.9310101340491413E-2</v>
       </c>
       <c r="H36">
         <v>0.12798000000000001</v>
@@ -2557,7 +2606,8 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4.0919999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.9310101340491413E-2</v>
       </c>
       <c r="H37">
         <v>0.12798000000000001</v>
@@ -2610,7 +2660,8 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>3.9210000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7727176831370834E-2</v>
       </c>
       <c r="H38">
         <v>8.9730000000000004E-2</v>
@@ -2660,7 +2711,8 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>3.9210000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7727176831370834E-2</v>
       </c>
       <c r="H39">
         <v>8.9730000000000004E-2</v>
@@ -2710,7 +2762,8 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2.682E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.6117778988931035E-2</v>
       </c>
       <c r="H40">
         <v>8.9730000000000004E-2</v>
@@ -2760,7 +2813,8 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>3.6159999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.4894814737130672E-2</v>
       </c>
       <c r="H41">
         <v>8.9730000000000004E-2</v>
@@ -2810,7 +2864,8 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>3.9210000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7727176831370834E-2</v>
       </c>
       <c r="H42">
         <v>8.9730000000000004E-2</v>
@@ -2860,7 +2915,8 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>3.9210000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7727176831370834E-2</v>
       </c>
       <c r="H43">
         <v>8.9730000000000004E-2</v>
@@ -2907,7 +2963,8 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>6.4570000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.0650744331777244E-2</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2951,7 +3008,8 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>3.669E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.5388329167959413E-2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2995,7 +3053,8 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>6.4570000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.0650744331777244E-2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3039,7 +3098,8 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>5.9130000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>5.5828618007635819E-2</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3083,7 +3143,8 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>6.4570000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.0650744331777244E-2</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3127,7 +3188,8 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>6.4570000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.0650744331777244E-2</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3174,7 +3236,8 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1.491E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.4687418370148295E-2</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3218,7 +3281,8 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1.491E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.4687418370148295E-2</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3262,7 +3326,8 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1.491E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.4687418370148295E-2</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3306,7 +3371,8 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>2.358E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.303632113563342E-2</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3350,7 +3416,8 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1.491E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.4687418370148295E-2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3394,7 +3461,8 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3.2399999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1384164795346961E-2</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3441,7 +3509,8 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>7.0620000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.5962839943856141E-2</v>
       </c>
       <c r="H56">
         <v>0.10755000000000001</v>
@@ -3485,7 +3554,8 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>5.5E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>5.2128947823044378E-2</v>
       </c>
       <c r="H57">
         <v>0.10755000000000001</v>
@@ -3529,7 +3599,8 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>7.0620000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.5962839943856141E-2</v>
       </c>
       <c r="H58">
         <v>0.10755000000000001</v>
@@ -3573,7 +3644,8 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>6.5409999999999996E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.1392635834368228E-2</v>
       </c>
       <c r="H59">
         <v>0.10755000000000001</v>
@@ -3617,7 +3689,8 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>7.009E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.5495926876599025E-2</v>
       </c>
       <c r="H60">
         <v>0.10755000000000001</v>
@@ -3661,7 +3734,8 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>7.0620000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>6.5962839943856141E-2</v>
       </c>
       <c r="H61">
         <v>0.10755000000000001</v>
@@ -3708,7 +3782,8 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1.668E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.6411169854229805E-2</v>
       </c>
       <c r="H62">
         <v>0.11669</v>
@@ -3752,7 +3827,8 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1.558E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.5343883562176334E-2</v>
       </c>
       <c r="H63">
         <v>0.11669</v>
@@ -3796,7 +3872,8 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1.668E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.6411169854229805E-2</v>
       </c>
       <c r="H64">
         <v>0.11669</v>
@@ -3840,7 +3917,8 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1.668E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.6411169854229805E-2</v>
       </c>
       <c r="H65">
         <v>0.11669</v>
@@ -3884,7 +3962,8 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1.668E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.6411169854229805E-2</v>
       </c>
       <c r="H66">
         <v>0.11669</v>
@@ -3928,7 +4007,8 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1.668E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>1.6411169854229805E-2</v>
       </c>
       <c r="H67">
         <v>0.11669</v>
@@ -3975,7 +4055,8 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>3.8760000000000003E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7311617850042805E-2</v>
       </c>
       <c r="H68">
         <v>9.5439999999999997E-2</v>
@@ -4019,7 +4100,8 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>3.8760000000000003E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7311617850042805E-2</v>
       </c>
       <c r="H69">
         <v>9.5439999999999997E-2</v>
@@ -4063,7 +4145,8 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>3.6810000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.5501109894546738E-2</v>
       </c>
       <c r="H70">
         <v>9.5439999999999997E-2</v>
@@ -4107,7 +4190,8 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>3.746E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.6105368735559938E-2</v>
       </c>
       <c r="H71">
         <v>9.5439999999999997E-2</v>
@@ -4151,7 +4235,8 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>3.8760000000000003E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7311617850042805E-2</v>
       </c>
       <c r="H72">
         <v>9.5439999999999997E-2</v>
@@ -4195,7 +4280,8 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>3.9289999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.7807225850854602E-2</v>
       </c>
       <c r="H73">
         <v>9.5439999999999997E-2</v>
@@ -4226,7 +4312,7 @@
       <c r="A74">
         <v>13</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="4">
         <v>900</v>
       </c>
       <c r="C74">
@@ -4242,28 +4328,30 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>4.9770000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.301222897821208E-2</v>
       </c>
       <c r="H74">
-        <v>0.10993</v>
+        <v>0.12341000000000001</v>
       </c>
       <c r="I74">
-        <v>246.8211</v>
+        <v>243.09539000000001</v>
       </c>
       <c r="J74">
-        <v>256.17610000000002</v>
+        <v>254.99841000000001</v>
       </c>
       <c r="K74">
-        <v>3.6519999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.301222897821208E-2</v>
       </c>
       <c r="L74">
-        <v>4262</v>
+        <v>4273</v>
       </c>
       <c r="M74">
-        <v>2441</v>
+        <v>2510</v>
       </c>
       <c r="N74">
-        <v>12.77788</v>
+        <v>12.717879999999999</v>
       </c>
       <c r="O74">
         <v>244.03036</v>
@@ -4286,22 +4374,24 @@
         <v>1</v>
       </c>
       <c r="G75">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.10993</v>
+        <v>0.12341000000000001</v>
       </c>
       <c r="I75">
-        <v>246.8211</v>
+        <v>243.09539000000001</v>
       </c>
       <c r="J75">
         <v>244.03036</v>
       </c>
       <c r="K75">
-        <v>-1.1440000000000001E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>4262</v>
+        <v>4273</v>
       </c>
       <c r="M75">
         <v>4215</v>
@@ -4330,13 +4420,14 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>4.9770000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.741168282287074E-2</v>
       </c>
       <c r="H76">
-        <v>0.10993</v>
+        <v>0.12341000000000001</v>
       </c>
       <c r="I76">
-        <v>246.8211</v>
+        <v>243.09539000000001</v>
       </c>
       <c r="J76">
         <v>256.17610000000002</v>
@@ -4345,7 +4436,7 @@
         <v>3.6519999999999997E-2</v>
       </c>
       <c r="L76">
-        <v>4262</v>
+        <v>4273</v>
       </c>
       <c r="M76">
         <v>2653</v>
@@ -4374,13 +4465,14 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>4.9770000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.741168282287074E-2</v>
       </c>
       <c r="H77">
-        <v>0.10993</v>
+        <v>0.12341000000000001</v>
       </c>
       <c r="I77">
-        <v>246.8211</v>
+        <v>243.09539000000001</v>
       </c>
       <c r="J77">
         <v>256.17610000000002</v>
@@ -4389,7 +4481,7 @@
         <v>3.6519999999999997E-2</v>
       </c>
       <c r="L77">
-        <v>4262</v>
+        <v>4273</v>
       </c>
       <c r="M77">
         <v>4210</v>
@@ -4418,13 +4510,14 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>4.9770000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.741168282287074E-2</v>
       </c>
       <c r="H78">
-        <v>0.10993</v>
+        <v>0.12341000000000001</v>
       </c>
       <c r="I78">
-        <v>246.8211</v>
+        <v>243.09539000000001</v>
       </c>
       <c r="J78">
         <v>256.17610000000002</v>
@@ -4433,7 +4526,7 @@
         <v>3.6519999999999997E-2</v>
       </c>
       <c r="L78">
-        <v>4262</v>
+        <v>4273</v>
       </c>
       <c r="M78">
         <v>2440</v>
@@ -4462,13 +4555,14 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>4.9770000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.741168282287074E-2</v>
       </c>
       <c r="H79">
-        <v>0.10993</v>
+        <v>0.12341000000000001</v>
       </c>
       <c r="I79">
-        <v>246.8211</v>
+        <v>243.09539000000001</v>
       </c>
       <c r="J79">
         <v>256.17610000000002</v>
@@ -4477,7 +4571,7 @@
         <v>3.6519999999999997E-2</v>
       </c>
       <c r="L79">
-        <v>4262</v>
+        <v>4273</v>
       </c>
       <c r="M79">
         <v>4316</v>
@@ -4509,7 +4603,8 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>3.1359999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.0408265902042871E-2</v>
       </c>
       <c r="H80">
         <v>0.11655</v>
@@ -4553,7 +4648,8 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>2.529E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.4664070935093263E-2</v>
       </c>
       <c r="H81">
         <v>0.11655</v>
@@ -4597,7 +4693,8 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>3.1359999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.0408265902042871E-2</v>
       </c>
       <c r="H82">
         <v>0.11655</v>
@@ -4641,7 +4738,8 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>3.1359999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.0408265902042871E-2</v>
       </c>
       <c r="H83">
         <v>0.11655</v>
@@ -4685,7 +4783,8 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>3.1359999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.0408265902042871E-2</v>
       </c>
       <c r="H84">
         <v>0.11655</v>
@@ -4729,7 +4828,8 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>3.1359999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.0408265902042871E-2</v>
       </c>
       <c r="H85">
         <v>0.11655</v>
@@ -4776,7 +4876,8 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>3.2779999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1741358336605463E-2</v>
       </c>
       <c r="H86">
         <v>0.1318</v>
@@ -4820,7 +4921,8 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>2.6589999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.5902897306878728E-2</v>
       </c>
       <c r="H87">
         <v>0.1318</v>
@@ -4864,7 +4966,8 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>3.2779999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1741358336605463E-2</v>
       </c>
       <c r="H88">
         <v>0.1318</v>
@@ -4908,7 +5011,8 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>3.2779999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1741358336605463E-2</v>
       </c>
       <c r="H89">
         <v>0.1318</v>
@@ -4952,7 +5056,8 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>4.6649999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.4569627127815176E-2</v>
       </c>
       <c r="H90">
         <v>0.1318</v>
@@ -4996,7 +5101,8 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>4.6649999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.4569627127815176E-2</v>
       </c>
       <c r="H91">
         <v>0.1318</v>
@@ -5043,7 +5149,8 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>3.2570000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.154604277429781E-2</v>
       </c>
       <c r="H92">
         <v>0.18129000000000001</v>
@@ -5087,7 +5194,8 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>2.7990000000000001E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.7231934391438499E-2</v>
       </c>
       <c r="H93">
         <v>0.18129000000000001</v>
@@ -5131,7 +5239,8 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>3.0970000000000001E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.0035332101527038E-2</v>
       </c>
       <c r="H94">
         <v>0.18129000000000001</v>
@@ -5175,7 +5284,8 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>3.29E-3</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.2802094923439205E-3</v>
       </c>
       <c r="H95">
         <v>0.18129000000000001</v>
@@ -5219,7 +5329,8 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>3.023E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.9345841466948186E-2</v>
       </c>
       <c r="H96">
         <v>0.18129000000000001</v>
@@ -5263,7 +5374,8 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>3.2570000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.154604277429781E-2</v>
       </c>
       <c r="H97">
         <v>0.18129000000000001</v>
@@ -5310,7 +5422,8 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>4.5199999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.3248016617616049E-2</v>
       </c>
       <c r="H98">
         <v>7.9039999999999999E-2</v>
@@ -5354,7 +5467,8 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>3.3529999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.2442653221973414E-2</v>
       </c>
       <c r="H99">
         <v>7.9039999999999999E-2</v>
@@ -5398,7 +5512,8 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>4.5199999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.3248016617616049E-2</v>
       </c>
       <c r="H100">
         <v>7.9039999999999999E-2</v>
@@ -5442,7 +5557,8 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2.538E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.4755060743371957E-2</v>
       </c>
       <c r="H101">
         <v>7.9039999999999999E-2</v>
@@ -5486,7 +5602,8 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>4.5199999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.3248016617616049E-2</v>
       </c>
       <c r="H102">
         <v>7.9039999999999999E-2</v>
@@ -5530,7 +5647,8 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>4.5199999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.3248016617616049E-2</v>
       </c>
       <c r="H103">
         <v>7.9039999999999999E-2</v>
@@ -5577,7 +5695,8 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>3.7929999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.6547971075520845E-2</v>
       </c>
       <c r="H104">
         <v>0.12427000000000001</v>
@@ -5621,7 +5740,8 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>3.7929999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.6547971075520845E-2</v>
       </c>
       <c r="H105">
         <v>0.12427000000000001</v>
@@ -5665,7 +5785,8 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>3.4729999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.3565792858117685E-2</v>
       </c>
       <c r="H106">
         <v>0.12427000000000001</v>
@@ -5709,7 +5830,8 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>3.4729999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.3565792858117685E-2</v>
       </c>
       <c r="H107">
         <v>0.12427000000000001</v>
@@ -5753,7 +5875,8 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>3.2849999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1806907248136916E-2</v>
       </c>
       <c r="H108">
         <v>0.12427000000000001</v>
@@ -5797,7 +5920,8 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>3.2849999999999997E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.1806907248136916E-2</v>
       </c>
       <c r="H109">
         <v>0.12427000000000001</v>
@@ -5844,7 +5968,8 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>5.1529999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.9001015568712676E-2</v>
       </c>
       <c r="H110">
         <v>9.1380000000000003E-2</v>
@@ -5888,7 +6013,8 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>2.5420000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>2.4788057809282144E-2</v>
       </c>
       <c r="H111">
         <v>9.1380000000000003E-2</v>
@@ -5932,7 +6058,8 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>3.5459999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.4246255952350937E-2</v>
       </c>
       <c r="H112">
         <v>9.1380000000000003E-2</v>
@@ -5976,7 +6103,8 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>3.8949999999999999E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.749276642043213E-2</v>
       </c>
       <c r="H113">
         <v>9.1380000000000003E-2</v>
@@ -6020,7 +6148,8 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>4.7E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.4893029316174483E-2</v>
       </c>
       <c r="H114">
         <v>9.1380000000000003E-2</v>
@@ -6064,6 +6193,7 @@
         <v>1</v>
       </c>
       <c r="G115">
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H115">
@@ -6111,7 +6241,8 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>4.7309999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.5169279303335412E-2</v>
       </c>
       <c r="H116">
         <v>0.10209</v>
@@ -6155,7 +6286,8 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>4.5240000000000002E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.3277413747074979E-2</v>
       </c>
       <c r="H117">
         <v>0.10209</v>
@@ -6199,7 +6331,8 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>4.7309999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.5169279303335412E-2</v>
       </c>
       <c r="H118">
         <v>0.10209</v>
@@ -6243,7 +6376,8 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>3.6630000000000003E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>3.533857590063761E-2</v>
       </c>
       <c r="H119">
         <v>0.10209</v>
@@ -6287,7 +6421,8 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>4.7309999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.5169279303335412E-2</v>
       </c>
       <c r="H120">
         <v>0.10209</v>
@@ -6331,7 +6466,8 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>4.7309999999999998E-2</v>
+        <f>(TestingFile2to6[[#This Row],[Obj. LR]]-TestingFile2to6[[#This Row],[LB Heuristic]])/TestingFile2to6[[#This Row],[Obj. LR]]</f>
+        <v>4.5169279303335412E-2</v>
       </c>
       <c r="H121">
         <v>0.10209</v>

--- a/Results/Final Results/Samples/900Scen/Results_Sample900_03.xlsx
+++ b/Results/Final Results/Samples/900Scen/Results_Sample900_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\900Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E54E9-2166-4669-90D5-FD6D8A7B1751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D36F482-CCCE-496D-A99C-854DB5F95ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1815,7 +1815,7 @@
         <v>29</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
